--- a/rtl/spec_5g - 97me.xlsx
+++ b/rtl/spec_5g - 97me.xlsx
@@ -1130,8 +1130,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1189,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>18</v>
@@ -1271,7 +1271,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>18</v>
@@ -1353,7 +1353,7 @@
         <v>102</v>
       </c>
       <c r="B11" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>18</v>
@@ -1424,7 +1424,7 @@
         <v>102</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2">
         <v>18</v>
@@ -1532,7 +1532,7 @@
         <v>102</v>
       </c>
       <c r="B21" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>18</v>
@@ -1644,7 +1644,7 @@
         <v>102</v>
       </c>
       <c r="B27" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>18</v>
